--- a/Responses/data/response_data.xlsx
+++ b/Responses/data/response_data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A17:I367" totalsRowShown="0">
-  <autoFilter ref="A17:I367"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A17:I368" totalsRowShown="0">
+  <autoFilter ref="A17:I368"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" name="Contact"/>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:M272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H247" sqref="H247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6401,86 +6401,95 @@
       <c r="A247" s="1">
         <v>42876</v>
       </c>
-      <c r="C247">
-        <v>36</v>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>27</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>42877</v>
+        <v>42876</v>
       </c>
       <c r="C248">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>42882</v>
+        <v>42877</v>
       </c>
       <c r="C249">
-        <v>39</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>42884</v>
+        <v>42882</v>
       </c>
       <c r="C250">
-        <v>6</v>
-      </c>
-      <c r="D250" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E250">
         <v>1</v>
-      </c>
-      <c r="F250">
-        <v>38</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>42884</v>
       </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
       <c r="C251">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="D251" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E251">
         <v>1</v>
+      </c>
+      <c r="F251">
+        <v>38</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>42885</v>
+        <v>42884</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
       </c>
       <c r="C252">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D252" t="s">
         <v>8</v>
       </c>
-      <c r="F252">
-        <v>34</v>
-      </c>
-      <c r="I252">
-        <v>76</v>
+      <c r="E252">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>42886</v>
+        <v>42885</v>
       </c>
       <c r="C253">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253">
+        <v>34</v>
+      </c>
+      <c r="I253">
+        <v>76</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -6488,19 +6497,7 @@
         <v>42886</v>
       </c>
       <c r="C254">
-        <v>17</v>
-      </c>
-      <c r="D254" t="s">
-        <v>8</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>45</v>
-      </c>
-      <c r="I254">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -6508,30 +6505,33 @@
         <v>42886</v>
       </c>
       <c r="C255">
+        <v>17</v>
+      </c>
+      <c r="D255" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255">
         <v>1</v>
       </c>
       <c r="F255">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I255">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>42888</v>
+        <v>42886</v>
       </c>
       <c r="C256">
-        <v>36</v>
-      </c>
-      <c r="D256" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F256">
         <v>37</v>
       </c>
       <c r="I256">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -6539,16 +6539,16 @@
         <v>42888</v>
       </c>
       <c r="C257">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D257" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F257">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I257">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -6556,21 +6556,30 @@
         <v>42888</v>
       </c>
       <c r="C258">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D258" t="s">
-        <v>17</v>
-      </c>
-      <c r="E258">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="F258">
+        <v>31</v>
+      </c>
+      <c r="I258">
+        <v>94</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>42898</v>
+        <v>42888</v>
       </c>
       <c r="C259">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="D259" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -6578,18 +6587,18 @@
         <v>42898</v>
       </c>
       <c r="C260">
-        <v>10</v>
-      </c>
-      <c r="D260" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>42951</v>
+        <v>42898</v>
       </c>
       <c r="C261">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -6597,19 +6606,7 @@
         <v>42951</v>
       </c>
       <c r="C262">
-        <v>34</v>
-      </c>
-      <c r="D262" t="s">
-        <v>10</v>
-      </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>29</v>
-      </c>
-      <c r="I262">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6617,7 +6614,19 @@
         <v>42951</v>
       </c>
       <c r="C263">
+        <v>34</v>
+      </c>
+      <c r="D263" t="s">
         <v>10</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>29</v>
+      </c>
+      <c r="I263">
+        <v>70</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -6627,18 +6636,6 @@
       <c r="C264">
         <v>10</v>
       </c>
-      <c r="D264" t="s">
-        <v>29</v>
-      </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264">
-        <v>32</v>
-      </c>
-      <c r="I264">
-        <v>78</v>
-      </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
@@ -6648,16 +6645,16 @@
         <v>10</v>
       </c>
       <c r="D265" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E265">
         <v>1</v>
       </c>
       <c r="F265">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I265">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -6665,16 +6662,19 @@
         <v>42951</v>
       </c>
       <c r="C266">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D266" t="s">
         <v>8</v>
       </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
       <c r="F266">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I266">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -6682,89 +6682,106 @@
         <v>42951</v>
       </c>
       <c r="C267">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D267" t="s">
         <v>8</v>
       </c>
       <c r="F267">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I267">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>42952</v>
+        <v>42951</v>
       </c>
       <c r="C268">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D268" t="s">
         <v>8</v>
       </c>
-      <c r="E268">
-        <v>1</v>
-      </c>
       <c r="F268">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I268">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>42958</v>
+        <v>42952</v>
       </c>
       <c r="C269">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
       </c>
       <c r="F269">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I269">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>42963</v>
+        <v>42958</v>
       </c>
       <c r="C270">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D270" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F270">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I270">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
+        <v>42963</v>
+      </c>
+      <c r="C271">
+        <v>17</v>
+      </c>
+      <c r="D271" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271">
+        <v>29</v>
+      </c>
+      <c r="I271">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
         <v>42966</v>
       </c>
-      <c r="C271">
+      <c r="C272">
         <v>32</v>
       </c>
-      <c r="D271" t="s">
-        <v>8</v>
-      </c>
-      <c r="E271">
-        <v>1</v>
-      </c>
-      <c r="F271">
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
         <v>32</v>
       </c>
-      <c r="I271">
+      <c r="I272">
         <v>86</v>
       </c>
     </row>
